--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H2">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I2">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J2">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>485.6028625906827</v>
+        <v>482.6238983593381</v>
       </c>
       <c r="R2">
-        <v>4370.425763316143</v>
+        <v>4343.615085234042</v>
       </c>
       <c r="S2">
-        <v>0.01812655849039171</v>
+        <v>0.02198058024553959</v>
       </c>
       <c r="T2">
-        <v>0.02002308093148661</v>
+        <v>0.02281132728306371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H3">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I3">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J3">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>1130.417817405511</v>
+        <v>1096.255153195506</v>
       </c>
       <c r="R3">
-        <v>10173.7603566496</v>
+        <v>9866.296378759554</v>
       </c>
       <c r="S3">
-        <v>0.04219617770880719</v>
+        <v>0.04992774797583516</v>
       </c>
       <c r="T3">
-        <v>0.04661102556840506</v>
+        <v>0.05181474678377577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H4">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I4">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J4">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>156.045551670288</v>
+        <v>199.31393900547</v>
       </c>
       <c r="R4">
-        <v>1404.409965032592</v>
+        <v>1793.82545104923</v>
       </c>
       <c r="S4">
-        <v>0.00582486026632247</v>
+        <v>0.009077536452831046</v>
       </c>
       <c r="T4">
-        <v>0.00643429631658972</v>
+        <v>0.009420618229197566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H5">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I5">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J5">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>276.062727821846</v>
+        <v>161.16303492207</v>
       </c>
       <c r="R5">
-        <v>1656.376366931076</v>
+        <v>966.97820953242</v>
       </c>
       <c r="S5">
-        <v>0.01030485519830581</v>
+        <v>0.007339995043266009</v>
       </c>
       <c r="T5">
-        <v>0.007588678962687048</v>
+        <v>0.005078271435289128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.921332</v>
+        <v>8.651718000000001</v>
       </c>
       <c r="H6">
-        <v>26.763996</v>
+        <v>25.955154</v>
       </c>
       <c r="I6">
-        <v>0.08132400804126952</v>
+        <v>0.09424769069200405</v>
       </c>
       <c r="J6">
-        <v>0.08603833314354256</v>
+        <v>0.09527060788475794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>130.5069422533707</v>
+        <v>130.024645319988</v>
       </c>
       <c r="R6">
-        <v>1174.562480280336</v>
+        <v>1170.221807879892</v>
       </c>
       <c r="S6">
-        <v>0.00487155637744234</v>
+        <v>0.005921830974532225</v>
       </c>
       <c r="T6">
-        <v>0.005381251364374122</v>
+        <v>0.00614564415343179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>228.840844</v>
       </c>
       <c r="I7">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J7">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>4152.06193141218</v>
+        <v>4255.188015263601</v>
       </c>
       <c r="R7">
-        <v>37368.55738270962</v>
+        <v>38296.69213737241</v>
       </c>
       <c r="S7">
-        <v>0.1549879526120317</v>
+        <v>0.1937979075369388</v>
       </c>
       <c r="T7">
-        <v>0.1712038344289732</v>
+        <v>0.2011224201642774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>228.840844</v>
       </c>
       <c r="I8">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J8">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
         <v>9665.438875708805</v>
@@ -948,10 +948,10 @@
         <v>86988.94988137925</v>
       </c>
       <c r="S8">
-        <v>0.3607910014804002</v>
+        <v>0.4402018953849941</v>
       </c>
       <c r="T8">
-        <v>0.3985393821901406</v>
+        <v>0.456839145922445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>228.840844</v>
       </c>
       <c r="I9">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J9">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>1334.240064401232</v>
+        <v>1757.306854082864</v>
       </c>
       <c r="R9">
-        <v>12008.16057961109</v>
+        <v>15815.76168674578</v>
       </c>
       <c r="S9">
-        <v>0.04980444398240453</v>
+        <v>0.08003462831723607</v>
       </c>
       <c r="T9">
-        <v>0.05501531982124353</v>
+        <v>0.0830595043501324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>228.840844</v>
       </c>
       <c r="I10">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J10">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>2360.425835951161</v>
+        <v>1420.938782839353</v>
       </c>
       <c r="R10">
-        <v>14162.55501570696</v>
+        <v>8525.632697036121</v>
       </c>
       <c r="S10">
-        <v>0.08810985328491638</v>
+        <v>0.06471511055788035</v>
       </c>
       <c r="T10">
-        <v>0.06488566575284006</v>
+        <v>0.04477399445646345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>228.840844</v>
       </c>
       <c r="I11">
-        <v>0.6953466379843617</v>
+        <v>0.8309610138706613</v>
       </c>
       <c r="J11">
-        <v>0.7356556462241831</v>
+        <v>0.8399798481928121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>1115.876673017011</v>
+        <v>1146.398498572835</v>
       </c>
       <c r="R11">
-        <v>10042.8900571531</v>
+        <v>10317.58648715551</v>
       </c>
       <c r="S11">
-        <v>0.04165338662460896</v>
+        <v>0.05221147207361193</v>
       </c>
       <c r="T11">
-        <v>0.04601144403098572</v>
+        <v>0.05418478329949405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H12">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I12">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J12">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N12">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O12">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P12">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q12">
-        <v>160.6286293961533</v>
+        <v>212.3570671914517</v>
       </c>
       <c r="R12">
-        <v>1445.65766456538</v>
+        <v>1911.213604723065</v>
       </c>
       <c r="S12">
-        <v>0.005995937154174208</v>
+        <v>0.009671571532153558</v>
       </c>
       <c r="T12">
-        <v>0.006623272418853033</v>
+        <v>0.01003710462130709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H13">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I13">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J13">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P13">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q13">
-        <v>373.9217344933384</v>
+        <v>482.3580639448228</v>
       </c>
       <c r="R13">
-        <v>3365.295610440045</v>
+        <v>4341.222575503405</v>
       </c>
       <c r="S13">
-        <v>0.01395773112819427</v>
+        <v>0.02196847310641916</v>
       </c>
       <c r="T13">
-        <v>0.01541808281742534</v>
+        <v>0.02279876255957359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H14">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I14">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J14">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N14">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O14">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P14">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q14">
-        <v>51.61704145326001</v>
+        <v>87.69918705116389</v>
       </c>
       <c r="R14">
-        <v>464.5533730793401</v>
+        <v>789.292683460475</v>
       </c>
       <c r="S14">
-        <v>0.001926758248524055</v>
+        <v>0.003994164037462229</v>
       </c>
       <c r="T14">
-        <v>0.002128348652947902</v>
+        <v>0.004145121833136456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H15">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I15">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J15">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N15">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O15">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P15">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q15">
-        <v>91.31654900223251</v>
+        <v>70.91258752844168</v>
       </c>
       <c r="R15">
-        <v>547.899294013395</v>
+        <v>425.47552517065</v>
       </c>
       <c r="S15">
-        <v>0.003408659409046588</v>
+        <v>0.003229636629861273</v>
       </c>
       <c r="T15">
-        <v>0.002510197518607526</v>
+        <v>0.002234466283302851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.951015</v>
+        <v>3.806801666666667</v>
       </c>
       <c r="H16">
-        <v>8.853045</v>
+        <v>11.420405</v>
       </c>
       <c r="I16">
-        <v>0.02690050853279611</v>
+        <v>0.04146948224685611</v>
       </c>
       <c r="J16">
-        <v>0.02845992186834783</v>
+        <v>0.04191957122042617</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N16">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O16">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P16">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q16">
-        <v>43.16933213491333</v>
+        <v>57.21153145674333</v>
       </c>
       <c r="R16">
-        <v>388.52398921422</v>
+        <v>514.90378311069</v>
       </c>
       <c r="S16">
-        <v>0.001611422592856987</v>
+        <v>0.002605636940959884</v>
       </c>
       <c r="T16">
-        <v>0.001780020460514024</v>
+        <v>0.002704115923106185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H17">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I17">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J17">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N17">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O17">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P17">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q17">
-        <v>981.5473585464493</v>
+        <v>164.945663474035</v>
       </c>
       <c r="R17">
-        <v>5889.284151278696</v>
+        <v>989.67398084421</v>
       </c>
       <c r="S17">
-        <v>0.03663914893512219</v>
+        <v>0.00751227074429984</v>
       </c>
       <c r="T17">
-        <v>0.02698172205082818</v>
+        <v>0.005197462629070266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H18">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I18">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J18">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>380.128601</v>
       </c>
       <c r="O18">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P18">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q18">
-        <v>2284.909559240953</v>
+        <v>374.6655194559617</v>
       </c>
       <c r="R18">
-        <v>13709.45735544571</v>
+        <v>2247.99311673577</v>
       </c>
       <c r="S18">
-        <v>0.08529098562120163</v>
+        <v>0.01706373336180483</v>
       </c>
       <c r="T18">
-        <v>0.06280980138341663</v>
+        <v>0.01180576678864974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H19">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I19">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J19">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N19">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O19">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P19">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q19">
-        <v>315.4143248615881</v>
+        <v>68.11923325935832</v>
       </c>
       <c r="R19">
-        <v>1892.485949169528</v>
+        <v>408.7153995561499</v>
       </c>
       <c r="S19">
-        <v>0.01177376957336884</v>
+        <v>0.003102416349484498</v>
       </c>
       <c r="T19">
-        <v>0.008670413679140128</v>
+        <v>0.002146447270753303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H20">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I20">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J20">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N20">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O20">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P20">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q20">
-        <v>558.0046209798835</v>
+        <v>55.08045460052499</v>
       </c>
       <c r="R20">
-        <v>2232.018483919534</v>
+        <v>220.3218184021</v>
       </c>
       <c r="S20">
-        <v>0.02082916757561715</v>
+        <v>0.002508579364642677</v>
       </c>
       <c r="T20">
-        <v>0.01022598006794287</v>
+        <v>0.001157062264622656</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.032657</v>
+        <v>2.956885</v>
       </c>
       <c r="H21">
-        <v>36.065314</v>
+        <v>5.91377</v>
       </c>
       <c r="I21">
-        <v>0.1643799314803502</v>
+        <v>0.03221089532643417</v>
       </c>
       <c r="J21">
-        <v>0.1159393201545266</v>
+        <v>0.02170699749231482</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N21">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O21">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P21">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q21">
-        <v>263.7932234529373</v>
+        <v>44.43833275391</v>
       </c>
       <c r="R21">
-        <v>1582.759340717624</v>
+        <v>266.62999652346</v>
       </c>
       <c r="S21">
-        <v>0.009846859775040347</v>
+        <v>0.002023895506202319</v>
       </c>
       <c r="T21">
-        <v>0.007251402973198813</v>
+        <v>0.001400258539218851</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H22">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I22">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J22">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N22">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O22">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P22">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q22">
-        <v>191.3708477648364</v>
+        <v>5.688792015649668</v>
       </c>
       <c r="R22">
-        <v>1722.337629883528</v>
+        <v>51.199128140847</v>
       </c>
       <c r="S22">
-        <v>0.00714348108834998</v>
+        <v>0.0002590898416453293</v>
       </c>
       <c r="T22">
-        <v>0.007890880116068011</v>
+        <v>0.0002688820362095801</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H23">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I23">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J23">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>380.128601</v>
       </c>
       <c r="O23">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P23">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q23">
-        <v>445.4854629382892</v>
+        <v>12.92179600681545</v>
       </c>
       <c r="R23">
-        <v>4009.369166444602</v>
+        <v>116.296164061339</v>
       </c>
       <c r="S23">
-        <v>0.01662905827508824</v>
+        <v>0.0005885091372595607</v>
       </c>
       <c r="T23">
-        <v>0.01836890217373544</v>
+        <v>0.0006107515993271154</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H24">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I24">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J24">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N24">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O24">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P24">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q24">
-        <v>61.49586794805602</v>
+        <v>2.349356400867222</v>
       </c>
       <c r="R24">
-        <v>553.4628115325041</v>
+        <v>21.144207607805</v>
       </c>
       <c r="S24">
-        <v>0.002295514571991797</v>
+        <v>0.0001069988806401487</v>
       </c>
       <c r="T24">
-        <v>0.002535686742674414</v>
+        <v>0.000111042859557777</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H25">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I25">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J25">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N25">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O25">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P25">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q25">
-        <v>108.7933419043103</v>
+        <v>1.899663463411667</v>
       </c>
       <c r="R25">
-        <v>652.760051425862</v>
+        <v>11.39798078047</v>
       </c>
       <c r="S25">
-        <v>0.00406103222883164</v>
+        <v>8.651810517255106E-05</v>
       </c>
       <c r="T25">
-        <v>0.002990616485983756</v>
+        <v>5.985868104041766E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>3.515800666666667</v>
+        <v>0.1019796666666667</v>
       </c>
       <c r="H26">
-        <v>10.547402</v>
+        <v>0.305939</v>
       </c>
       <c r="I26">
-        <v>0.03204891396122247</v>
+        <v>0.001110917864044306</v>
       </c>
       <c r="J26">
-        <v>0.03390677860939999</v>
+        <v>0.001122975209688795</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N26">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O26">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P26">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q26">
-        <v>51.43137757669244</v>
+        <v>1.532628547091333</v>
       </c>
       <c r="R26">
-        <v>462.8823981902319</v>
+        <v>13.793656923822</v>
       </c>
       <c r="S26">
-        <v>0.001919827796960816</v>
+        <v>6.980189932671617E-05</v>
       </c>
       <c r="T26">
-        <v>0.002120693090938377</v>
+        <v>7.244003355390488E-05</v>
       </c>
     </row>
   </sheetData>
